--- a/public/files/students_sample.xlsx
+++ b/public/files/students_sample.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="166">
   <si>
     <t>student_id</t>
   </si>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -1134,8 +1134,8 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>101</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1163,8 +1163,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
-        <v>102</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1192,8 +1192,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>103</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1221,8 +1221,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
-        <v>104</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1250,8 +1250,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
-        <v>105</v>
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1279,8 +1279,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
-        <v>106</v>
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1308,8 +1308,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8">
-        <v>107</v>
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1337,8 +1337,8 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
-        <v>108</v>
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1366,8 +1366,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10">
-        <v>109</v>
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1395,8 +1395,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11">
-        <v>110</v>
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1424,8 +1424,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12">
-        <v>111</v>
+      <c r="A12" t="s">
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
